--- a/xls/subject_works_list_compiled.csv.xlsx
+++ b/xls/subject_works_list_compiled.csv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nfoasberg\Desktop\ProjectTRIKE\American_Literature\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nfoasberg\Desktop\ProjectTRIKE\Son_of_Am_Lit\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t>Astoria (1836)</t>
   </si>
@@ -554,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,18 +887,18 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B41">
-        <v>1950</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B42">
-        <v>1980</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -906,28 +906,28 @@
         <v>11</v>
       </c>
       <c r="B43">
-        <v>1950</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="B44">
-        <v>1980</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="B45">
-        <v>2010</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B46">
         <v>1950</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B47">
         <v>1950</v>
@@ -943,15 +943,15 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B48">
-        <v>1950</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B49">
         <v>1980</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B50">
         <v>1980</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B51">
-        <v>1980</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -978,12 +978,12 @@
         <v>15</v>
       </c>
       <c r="B52">
-        <v>1950</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B53">
         <v>1980</v>
@@ -991,18 +991,18 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B54">
-        <v>1980</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B55">
-        <v>1950</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1010,20 +1010,20 @@
         <v>39</v>
       </c>
       <c r="B56">
-        <v>1980</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>39</v>
+      <c r="A57" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B57">
-        <v>2010</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>40</v>
+      <c r="A58" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B58">
         <v>1980</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B59">
         <v>1980</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B60">
         <v>1980</v>
@@ -1047,31 +1047,31 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>1980</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="B62">
-        <v>2010</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B63">
-        <v>1950</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B64">
         <v>1980</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B65">
         <v>1980</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B66">
         <v>1980</v>
@@ -1095,33 +1095,25 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B67">
-        <v>1980</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B68">
-        <v>2010</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B69">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B70">
         <v>2010</v>
       </c>
     </row>
